--- a/DB_DigitalHelper.xlsx
+++ b/DB_DigitalHelper.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Роман\Desktop\Projects\DigitalHelperForAbiturients_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE860B-22EB-4B5C-A7A6-D212CD5D191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Вопросответ" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Задачи" sheetId="2" r:id="rId5"/>
+    <sheet name="Вопросответ" sheetId="1" r:id="rId1"/>
+    <sheet name="Задачи" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>Вопросы</t>
   </si>
@@ -24,13 +33,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Узнать про преподователей на разных дисциплинах в ИРИТ-РТФ и оставить свой отзыв вы можете тут: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/1Nw7TQdQ5IAWIbfcn4_lISA9JB1psm5EpELiWeLH7c8Y/edit?gid=1862833426#gid=1862833426</t>
     </r>
@@ -40,13 +50,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">С планировкой здания и местонахождением аудиторий в ИРИТ-РТФ и не только, можно ознакомиться тут: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://how-to-navigate.ru</t>
     </r>
@@ -56,13 +67,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">С ценами на очно\заочно обучение в ИРИТ-РТФ вы можете ознакомится на: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://priem-rtf.urfu.ru/ru/price/</t>
     </r>
@@ -72,13 +84,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">С бюджетные и контрактными местами в  ИРИТ-РТФ вы можете ознакомится на: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://priem-rtf.urfu.ru/ru/budget-places/</t>
     </r>
@@ -88,13 +101,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">С проходными баллами в ИРИТ-РТФ вы можете ознакомится на: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://priem-rtf.urfu.ru/ru/passing-points/</t>
     </r>
@@ -104,13 +118,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Конкурсные списки ИРИТ-РТФ: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://urfu.ru/ru/applicant/lists/</t>
     </r>
@@ -120,7 +135,6 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">ОТБОРОЧНАЯ КОМИССИЯ ИРИТ-РТФ
 Ответственный секретарь: СЕРГЕЕВА ЛЮБОВЬ ВЛАДИМИРОВНА
 Адрес: Г. ЕКАТЕРИНБУРГ, УЛ. МИРА, 32
@@ -133,14 +147,13 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>priem-rtf.urfu.ru</t>
     </r>
-  </si>
-  <si>
-    <t>Порядок поселения в общежитие \ Как заселится в общежитие? \ Кто ответственный за поселение в общежитие?</t>
   </si>
   <si>
     <t>Шаг 1. Медицинское обследование
@@ -209,13 +222,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Со сроками приёма документов вы можете ознакомиться тут: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://priem-rtf.urfu.ru/ru/calendar/</t>
     </r>
@@ -296,18 +310,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Абитуриенты вправе представить </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>сведения о своих индивидуальных достижениях</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>, результаты которых учитываются при приеме на обучение.</t>
     </r>
   </si>
@@ -322,13 +342,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">К сожалению, такой возможности нет. Вы можете записаться на сдачу ЕГЭ до 1 февраля. Информацию о регистрации можно найти тут: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://ege.midural.ru/uchastnikam.html</t>
     </r>
@@ -356,13 +377,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">С программами вступительных испытаний вы можете ознакомиться в разделе </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>«Программы вступительных испытаний, проводимых вузом самостоятельно, для поступления на программы ВО».</t>
     </r>
@@ -378,19 +400,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Абитуриенты, поступающие в университет на базе среднего профессионального образования, могут сдавать </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">общеобразовательные вступительные испытания в УрФУ в форме ЕГЭ и профессиональные вступительные испытания в форме компьютерного тестирования.
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 У лиц, поступающих по результатам ЕГЭ, нет привилегий по отношению к лицам, поступающим по результатам вступительных испытаний. Обе категории участвуют в общем конкурсе.</t>
     </r>
@@ -406,18 +434,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">В университете есть </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>военный учебный центр (ВУЦ).</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 Поступить на «военную кафедру» можно по конкурсу, обучаясь на втором курсе на любом из направлений подготовки бакалавриата или специалитета. По окончанию студенты получают звание лейтенанта запаса.
 ВУЦ дает возможность получить образование по военной специальности и поступить на контрактную службу.</t>
@@ -470,13 +504,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Информация о приеме на целевое обучение опубликована в соответствующем разделе: </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://urfu.ru/ru/applicant/docs-abiturient/sponsored/</t>
     </r>
@@ -498,152 +533,158 @@
   </si>
   <si>
     <t>сделана предварительная подготовка текста</t>
+  </si>
+  <si>
+    <t>Кто ответственный за поселение в общежитие</t>
+  </si>
+  <si>
+    <t>Как заселиться в общежитие</t>
+  </si>
+  <si>
+    <t>Порядок поселения в общежитие</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="7"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFE69138"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF1C4587"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF38761D"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -833,375 +874,397 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="54.0"/>
-    <col customWidth="1" min="2" max="2" width="114.38"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="114.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+      <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="9" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="9" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="11" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="8" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="11" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
+      <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="8" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+      <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="8" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="B36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="8" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="8" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="gid=1862833426" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B12"/>
-    <hyperlink r:id="rId9" ref="B21"/>
-    <hyperlink r:id="rId10" ref="B23"/>
-    <hyperlink r:id="rId11" location="c115324" ref="B27"/>
-    <hyperlink r:id="rId12" ref="B29"/>
-    <hyperlink r:id="rId13" ref="B31"/>
-    <hyperlink r:id="rId14" ref="B36"/>
+    <hyperlink ref="B2" r:id="rId1" location="gid=1862833426" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B25" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B29" r:id="rId11" location="c115324" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B31" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.13"/>
-    <col customWidth="1" min="2" max="2" width="25.5"/>
-    <col customWidth="1" min="3" max="3" width="25.0"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="8">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="15">
-        <v>45573.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>